--- a/isskaidymas/Greicio_palyginimas.xlsx
+++ b/isskaidymas/Greicio_palyginimas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zabit\Documents\GitHub\ObjProg_Ver1\isskaidymas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD788C4-80A3-43C5-8B49-68B4ACC2BCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5432435-BC06-4A54-BF3B-FD63F7C0B4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3F3D9251-AC98-4701-A858-818E8232C504}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3F3D9251-AC98-4701-A858-818E8232C504}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Studentų skaičius</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Vektoriaus greitis minus sąrašo greitis</t>
+  </si>
+  <si>
+    <t>Matavimo vienetai: milisekundės</t>
   </si>
 </sst>
 </file>
@@ -451,27 +454,31 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -497,7 +504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -523,7 +530,7 @@
         <v>37.75</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -549,7 +556,7 @@
         <v>213.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100000</v>
       </c>
@@ -575,7 +582,7 @@
         <v>1699.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1000000</v>
       </c>
@@ -601,7 +608,7 @@
         <v>16640.75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000000</v>
       </c>
@@ -627,12 +634,12 @@
         <v>167971.75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -658,7 +665,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -684,7 +691,7 @@
         <v>219.25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100000</v>
       </c>
@@ -710,7 +717,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1000000</v>
       </c>
@@ -736,7 +743,7 @@
         <v>18385</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10000000</v>
       </c>
@@ -762,7 +769,7 @@
         <v>196070.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -771,7 +778,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1000</v>
       </c>
@@ -797,7 +804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10000</v>
       </c>
@@ -823,7 +830,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>100000</v>
       </c>
@@ -849,7 +856,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1000000</v>
       </c>
@@ -875,7 +882,7 @@
         <v>1744.25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10000000</v>
       </c>
@@ -902,8 +909,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="B17:G17">
     <cfRule type="colorScale" priority="5">

--- a/isskaidymas/Greicio_palyginimas.xlsx
+++ b/isskaidymas/Greicio_palyginimas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zabit\Documents\GitHub\ObjProg_Ver1\isskaidymas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5432435-BC06-4A54-BF3B-FD63F7C0B4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B78C159-AA88-4B02-A28C-2036C274E5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3F3D9251-AC98-4701-A858-818E8232C504}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
